--- a/data/zenodo_ivan/conversion/passenger/CHE_convpass_PHEVd.xlsx
+++ b/data/zenodo_ivan/conversion/passenger/CHE_convpass_PHEVd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/passenger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82D69F1-7CB7-0F4C-9FD6-D86F43DFA84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74A977F-FF0B-4D42-A2AE-4C2115279C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="-4880" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="95">
   <si>
     <t>Name:</t>
   </si>
@@ -182,18 +182,6 @@
     <t>vkm/h</t>
   </si>
   <si>
-    <t>Speed limit built area</t>
-  </si>
-  <si>
-    <t>Speed limit expressway</t>
-  </si>
-  <si>
-    <t>Swiss confederation</t>
-  </si>
-  <si>
-    <t>https://www.ch.ch/en/vehicles-and-traffic/how-to-behave-in-road-traffic/traffic-regulations/driving-over-the-speed-limit/</t>
-  </si>
-  <si>
     <t>Mvkm/unit</t>
   </si>
   <si>
@@ -322,6 +310,15 @@
   <si>
     <t>Efficiency of BEVs.</t>
   </si>
+  <si>
+    <t>Federal Office of Spatial Development, Mobility and Transport Microcensus 2021</t>
+  </si>
+  <si>
+    <t>https://www.are.admin.ch/are/en/home/mobility/data/mtmc.html</t>
+  </si>
+  <si>
+    <t>Table G3.3.1.6</t>
+  </si>
 </sst>
 </file>
 
@@ -424,7 +421,18 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -760,9 +768,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H370" sqref="H370"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -783,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -792,7 +800,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">TODAY()</f>
-        <v>45030</v>
+        <v>45037</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -846,7 +854,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -868,7 +876,7 @@
         <v>conv_pass_PHEVd</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
@@ -920,7 +928,7 @@
         <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -943,7 +951,7 @@
         <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -966,7 +974,7 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -995,11 +1003,11 @@
         <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1021,16 +1029,16 @@
         <v>1.1307368766878999E-2</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1080,22 +1088,22 @@
         <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G15">
-        <v>50</v>
+        <v>38.1</v>
       </c>
       <c r="H15" t="s">
         <v>48</v>
       </c>
       <c r="J15" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="L15" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1114,23 +1122,18 @@
         <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G16">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s">
         <v>48</v>
       </c>
       <c r="J16" t="s">
-        <v>51</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L16" t="s">
-        <v>50</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
@@ -1154,14 +1157,14 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1186,14 +1189,14 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1218,14 +1221,14 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1250,14 +1253,14 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1282,14 +1285,14 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1314,14 +1317,14 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1346,14 +1349,14 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J23" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1378,14 +1381,14 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1410,14 +1413,14 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1442,14 +1445,14 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J26" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1474,14 +1477,14 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1506,14 +1509,14 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J28" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1538,14 +1541,14 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1570,14 +1573,14 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J30" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1602,14 +1605,14 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J31" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1634,14 +1637,14 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1666,14 +1669,14 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J33" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -1698,14 +1701,14 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J34" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -1730,14 +1733,14 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J35" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -1762,14 +1765,14 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J36" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -1794,14 +1797,14 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J37" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -1826,14 +1829,14 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J38" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -1858,14 +1861,14 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J39" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -1890,14 +1893,14 @@
         <v>1.3242403708501078</v>
       </c>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J40" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -1922,14 +1925,14 @@
         <v>2.8489003796568091</v>
       </c>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J41" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -1954,14 +1957,14 @@
         <v>4.3677976405152883</v>
       </c>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J42" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -1986,14 +1989,14 @@
         <v>6.4020939261768577</v>
       </c>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J43" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -2018,14 +2021,14 @@
         <v>7.5113470791327943</v>
       </c>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J44" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -2050,14 +2053,14 @@
         <v>8.5670315052143646</v>
       </c>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J45" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -2082,14 +2085,14 @@
         <v>8.6101924840039441</v>
       </c>
       <c r="H46" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J46" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -2114,14 +2117,14 @@
         <v>8.3894393846580613</v>
       </c>
       <c r="H47" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J47" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -2146,14 +2149,14 @@
         <v>14.188508033133317</v>
       </c>
       <c r="H48" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J48" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -2181,13 +2184,13 @@
         <v>44</v>
       </c>
       <c r="J49" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L49" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -2215,13 +2218,13 @@
         <v>44</v>
       </c>
       <c r="J50" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L50" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -2249,13 +2252,13 @@
         <v>44</v>
       </c>
       <c r="J51" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L51" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -2283,13 +2286,13 @@
         <v>44</v>
       </c>
       <c r="J52" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L52" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -2317,13 +2320,13 @@
         <v>44</v>
       </c>
       <c r="J53" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L53" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -2351,13 +2354,13 @@
         <v>44</v>
       </c>
       <c r="J54" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L54" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -2385,13 +2388,13 @@
         <v>44</v>
       </c>
       <c r="J55" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L55" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -2419,13 +2422,13 @@
         <v>44</v>
       </c>
       <c r="J56" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L56" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -2453,13 +2456,13 @@
         <v>44</v>
       </c>
       <c r="J57" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L57" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -2487,13 +2490,13 @@
         <v>44</v>
       </c>
       <c r="J58" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L58" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -2521,13 +2524,13 @@
         <v>44</v>
       </c>
       <c r="J59" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L59" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -2555,13 +2558,13 @@
         <v>44</v>
       </c>
       <c r="J60" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L60" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -2589,13 +2592,13 @@
         <v>44</v>
       </c>
       <c r="J61" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L61" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -2623,13 +2626,13 @@
         <v>44</v>
       </c>
       <c r="J62" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L62" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -2657,13 +2660,13 @@
         <v>44</v>
       </c>
       <c r="J63" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L63" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -2691,13 +2694,13 @@
         <v>44</v>
       </c>
       <c r="J64" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L64" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -2725,13 +2728,13 @@
         <v>44</v>
       </c>
       <c r="J65" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L65" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -2759,13 +2762,13 @@
         <v>44</v>
       </c>
       <c r="J66" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L66" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -2793,13 +2796,13 @@
         <v>44</v>
       </c>
       <c r="J67" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L67" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -2827,13 +2830,13 @@
         <v>44</v>
       </c>
       <c r="J68" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L68" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -2861,13 +2864,13 @@
         <v>44</v>
       </c>
       <c r="J69" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L69" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -2895,13 +2898,13 @@
         <v>44</v>
       </c>
       <c r="J70" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L70" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -2929,13 +2932,13 @@
         <v>44</v>
       </c>
       <c r="J71" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L71" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -2963,13 +2966,13 @@
         <v>44</v>
       </c>
       <c r="J72" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L72" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -2997,13 +3000,13 @@
         <v>44</v>
       </c>
       <c r="J73" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L73" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -3031,13 +3034,13 @@
         <v>44</v>
       </c>
       <c r="J74" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L74" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -3065,13 +3068,13 @@
         <v>44</v>
       </c>
       <c r="J75" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L75" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -3099,13 +3102,13 @@
         <v>44</v>
       </c>
       <c r="J76" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L76" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -3133,13 +3136,13 @@
         <v>44</v>
       </c>
       <c r="J77" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L77" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -3167,13 +3170,13 @@
         <v>44</v>
       </c>
       <c r="J78" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L78" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -3201,13 +3204,13 @@
         <v>44</v>
       </c>
       <c r="J79" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L79" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -3235,13 +3238,13 @@
         <v>44</v>
       </c>
       <c r="J80" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L80" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -3289,11 +3292,11 @@
         <v>44</v>
       </c>
       <c r="J82" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K82" s="2"/>
       <c r="L82" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -3321,11 +3324,11 @@
         <v>44</v>
       </c>
       <c r="J83" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K83" s="2"/>
       <c r="L83" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -3353,11 +3356,11 @@
         <v>44</v>
       </c>
       <c r="J84" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K84" s="2"/>
       <c r="L84" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -3385,11 +3388,11 @@
         <v>44</v>
       </c>
       <c r="J85" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K85" s="2"/>
       <c r="L85" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -3417,11 +3420,11 @@
         <v>44</v>
       </c>
       <c r="J86" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K86" s="2"/>
       <c r="L86" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -3449,11 +3452,11 @@
         <v>44</v>
       </c>
       <c r="J87" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K87" s="2"/>
       <c r="L87" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -3481,11 +3484,11 @@
         <v>44</v>
       </c>
       <c r="J88" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K88" s="2"/>
       <c r="L88" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -3513,11 +3516,11 @@
         <v>44</v>
       </c>
       <c r="J89" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K89" s="2"/>
       <c r="L89" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -3545,11 +3548,11 @@
         <v>44</v>
       </c>
       <c r="J90" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K90" s="2"/>
       <c r="L90" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -3577,11 +3580,11 @@
         <v>44</v>
       </c>
       <c r="J91" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K91" s="2"/>
       <c r="L91" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -3609,11 +3612,11 @@
         <v>44</v>
       </c>
       <c r="J92" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K92" s="2"/>
       <c r="L92" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -3641,11 +3644,11 @@
         <v>44</v>
       </c>
       <c r="J93" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K93" s="2"/>
       <c r="L93" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -3673,11 +3676,11 @@
         <v>44</v>
       </c>
       <c r="J94" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K94" s="2"/>
       <c r="L94" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -3705,11 +3708,11 @@
         <v>44</v>
       </c>
       <c r="J95" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K95" s="2"/>
       <c r="L95" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -3737,13 +3740,13 @@
         <v>44</v>
       </c>
       <c r="J96" t="s">
+        <v>65</v>
+      </c>
+      <c r="K96" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K96" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="L96" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -3771,13 +3774,13 @@
         <v>44</v>
       </c>
       <c r="J97" t="s">
+        <v>65</v>
+      </c>
+      <c r="K97" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K97" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="L97" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -3805,13 +3808,13 @@
         <v>44</v>
       </c>
       <c r="J98" t="s">
+        <v>65</v>
+      </c>
+      <c r="K98" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K98" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="L98" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -3839,13 +3842,13 @@
         <v>44</v>
       </c>
       <c r="J99" t="s">
+        <v>65</v>
+      </c>
+      <c r="K99" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K99" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="L99" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -3873,13 +3876,13 @@
         <v>44</v>
       </c>
       <c r="J100" t="s">
+        <v>65</v>
+      </c>
+      <c r="K100" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K100" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="L100" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -3907,13 +3910,13 @@
         <v>44</v>
       </c>
       <c r="J101" t="s">
+        <v>65</v>
+      </c>
+      <c r="K101" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K101" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="L101" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -3941,13 +3944,13 @@
         <v>44</v>
       </c>
       <c r="J102" t="s">
+        <v>65</v>
+      </c>
+      <c r="K102" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K102" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="L102" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -3975,13 +3978,13 @@
         <v>44</v>
       </c>
       <c r="J103" t="s">
+        <v>65</v>
+      </c>
+      <c r="K103" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K103" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="L103" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -4009,13 +4012,13 @@
         <v>44</v>
       </c>
       <c r="J104" t="s">
+        <v>65</v>
+      </c>
+      <c r="K104" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K104" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="L104" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -4043,13 +4046,13 @@
         <v>44</v>
       </c>
       <c r="J105" t="s">
+        <v>65</v>
+      </c>
+      <c r="K105" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K105" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="L105" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -4077,13 +4080,13 @@
         <v>44</v>
       </c>
       <c r="J106" t="s">
+        <v>65</v>
+      </c>
+      <c r="K106" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K106" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="L106" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -4111,13 +4114,13 @@
         <v>44</v>
       </c>
       <c r="J107" t="s">
+        <v>65</v>
+      </c>
+      <c r="K107" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K107" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="L107" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -4145,13 +4148,13 @@
         <v>44</v>
       </c>
       <c r="J108" t="s">
+        <v>65</v>
+      </c>
+      <c r="K108" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K108" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="L108" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
@@ -4179,13 +4182,13 @@
         <v>44</v>
       </c>
       <c r="J109" t="s">
+        <v>65</v>
+      </c>
+      <c r="K109" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K109" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="L109" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
@@ -4213,13 +4216,13 @@
         <v>44</v>
       </c>
       <c r="J110" t="s">
+        <v>65</v>
+      </c>
+      <c r="K110" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K110" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="L110" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -4247,13 +4250,13 @@
         <v>44</v>
       </c>
       <c r="J111" t="s">
+        <v>65</v>
+      </c>
+      <c r="K111" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K111" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="L111" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
@@ -4281,13 +4284,13 @@
         <v>44</v>
       </c>
       <c r="J112" t="s">
+        <v>65</v>
+      </c>
+      <c r="K112" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K112" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="L112" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
@@ -4334,10 +4337,10 @@
         <v>44</v>
       </c>
       <c r="J114" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L114" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
@@ -4365,10 +4368,10 @@
         <v>44</v>
       </c>
       <c r="J115" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L115" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
@@ -4396,10 +4399,10 @@
         <v>44</v>
       </c>
       <c r="J116" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L116" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
@@ -4427,10 +4430,10 @@
         <v>44</v>
       </c>
       <c r="J117" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L117" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
@@ -4458,10 +4461,10 @@
         <v>44</v>
       </c>
       <c r="J118" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L118" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
@@ -4489,10 +4492,10 @@
         <v>44</v>
       </c>
       <c r="J119" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L119" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
@@ -4520,10 +4523,10 @@
         <v>44</v>
       </c>
       <c r="J120" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L120" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
@@ -4551,10 +4554,10 @@
         <v>44</v>
       </c>
       <c r="J121" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L121" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
@@ -4582,10 +4585,10 @@
         <v>44</v>
       </c>
       <c r="J122" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L122" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
@@ -4613,10 +4616,10 @@
         <v>44</v>
       </c>
       <c r="J123" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L123" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
@@ -4644,10 +4647,10 @@
         <v>44</v>
       </c>
       <c r="J124" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L124" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
@@ -4675,10 +4678,10 @@
         <v>44</v>
       </c>
       <c r="J125" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L125" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
@@ -4706,10 +4709,10 @@
         <v>44</v>
       </c>
       <c r="J126" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L126" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
@@ -4737,10 +4740,10 @@
         <v>44</v>
       </c>
       <c r="J127" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L127" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
@@ -4768,10 +4771,10 @@
         <v>44</v>
       </c>
       <c r="J128" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L128" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
@@ -4799,10 +4802,10 @@
         <v>44</v>
       </c>
       <c r="J129" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L129" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
@@ -4830,10 +4833,10 @@
         <v>44</v>
       </c>
       <c r="J130" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L130" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
@@ -4861,10 +4864,10 @@
         <v>44</v>
       </c>
       <c r="J131" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L131" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
@@ -4892,10 +4895,10 @@
         <v>44</v>
       </c>
       <c r="J132" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L132" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
@@ -4923,10 +4926,10 @@
         <v>44</v>
       </c>
       <c r="J133" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L133" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -4954,10 +4957,10 @@
         <v>44</v>
       </c>
       <c r="J134" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L134" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -4985,10 +4988,10 @@
         <v>44</v>
       </c>
       <c r="J135" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L135" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
@@ -5016,10 +5019,10 @@
         <v>44</v>
       </c>
       <c r="J136" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L136" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
@@ -5047,10 +5050,10 @@
         <v>44</v>
       </c>
       <c r="J137" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L137" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -5078,10 +5081,10 @@
         <v>44</v>
       </c>
       <c r="J138" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L138" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -5109,10 +5112,10 @@
         <v>44</v>
       </c>
       <c r="J139" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L139" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -5140,10 +5143,10 @@
         <v>44</v>
       </c>
       <c r="J140" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L140" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -5171,10 +5174,10 @@
         <v>44</v>
       </c>
       <c r="J141" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L141" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
@@ -5202,10 +5205,10 @@
         <v>44</v>
       </c>
       <c r="J142" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L142" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
@@ -5233,10 +5236,10 @@
         <v>44</v>
       </c>
       <c r="J143" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L143" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
@@ -5264,10 +5267,10 @@
         <v>44</v>
       </c>
       <c r="J144" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L144" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
@@ -5292,10 +5295,10 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L145" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
@@ -6311,16 +6314,16 @@
         <v>72045.010601140093</v>
       </c>
       <c r="H198" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J198" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K198" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L198" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
@@ -6345,16 +6348,16 @@
         <v>53656.836564942962</v>
       </c>
       <c r="H199" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J199" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K199" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L199" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
@@ -6379,16 +6382,16 @@
         <v>44177.384744154908</v>
       </c>
       <c r="H200" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J200" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K200" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L200" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
@@ -6413,16 +6416,16 @@
         <v>39666.497444253524</v>
       </c>
       <c r="H201" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J201" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K201" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L201" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
@@ -6447,16 +6450,16 @@
         <v>37182.871650974514</v>
       </c>
       <c r="H202" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J202" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K202" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L202" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
@@ -6481,16 +6484,16 @@
         <v>36487.354635334596</v>
       </c>
       <c r="H203" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J203" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K203" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L203" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
@@ -7181,16 +7184,16 @@
         <v>64000</v>
       </c>
       <c r="H239" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J239" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K239" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L239" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.2">
@@ -7258,7 +7261,7 @@
         <v>units</v>
       </c>
       <c r="L242" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.2">
@@ -7288,7 +7291,7 @@
         <v>units</v>
       </c>
       <c r="L243" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.2">
@@ -7318,7 +7321,7 @@
         <v>units</v>
       </c>
       <c r="L244" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.2">
@@ -7348,7 +7351,7 @@
         <v>units</v>
       </c>
       <c r="L245" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
@@ -7378,7 +7381,7 @@
         <v>units</v>
       </c>
       <c r="L246" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.2">
@@ -7408,7 +7411,7 @@
         <v>units</v>
       </c>
       <c r="L247" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">
@@ -7438,7 +7441,7 @@
         <v>units</v>
       </c>
       <c r="L248" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
@@ -7468,7 +7471,7 @@
         <v>units</v>
       </c>
       <c r="L249" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.2">
@@ -7498,7 +7501,7 @@
         <v>units</v>
       </c>
       <c r="L250" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.2">
@@ -7528,7 +7531,7 @@
         <v>units</v>
       </c>
       <c r="L251" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.2">
@@ -7558,7 +7561,7 @@
         <v>units</v>
       </c>
       <c r="L252" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.2">
@@ -7588,7 +7591,7 @@
         <v>units</v>
       </c>
       <c r="L253" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
@@ -7618,7 +7621,7 @@
         <v>units</v>
       </c>
       <c r="L254" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
@@ -7648,7 +7651,7 @@
         <v>units</v>
       </c>
       <c r="L255" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.2">
@@ -7678,7 +7681,7 @@
         <v>units</v>
       </c>
       <c r="L256" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
@@ -7708,7 +7711,7 @@
         <v>units</v>
       </c>
       <c r="L257" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
@@ -7738,7 +7741,7 @@
         <v>units</v>
       </c>
       <c r="L258" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -7768,7 +7771,7 @@
         <v>units</v>
       </c>
       <c r="L259" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
@@ -7798,7 +7801,7 @@
         <v>units</v>
       </c>
       <c r="L260" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -7828,7 +7831,7 @@
         <v>units</v>
       </c>
       <c r="L261" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
@@ -7858,7 +7861,7 @@
         <v>units</v>
       </c>
       <c r="L262" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
@@ -7888,7 +7891,7 @@
         <v>units</v>
       </c>
       <c r="L263" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
@@ -7918,7 +7921,7 @@
         <v>units</v>
       </c>
       <c r="L264" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
@@ -7948,7 +7951,7 @@
         <v>units</v>
       </c>
       <c r="L265" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
@@ -7978,7 +7981,7 @@
         <v>units</v>
       </c>
       <c r="L266" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
@@ -8008,7 +8011,7 @@
         <v>units</v>
       </c>
       <c r="L267" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
@@ -8038,7 +8041,7 @@
         <v>units</v>
       </c>
       <c r="L268" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
@@ -8068,7 +8071,7 @@
         <v>units</v>
       </c>
       <c r="L269" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.2">
@@ -8098,7 +8101,7 @@
         <v>units</v>
       </c>
       <c r="L270" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.2">
@@ -8128,7 +8131,7 @@
         <v>units</v>
       </c>
       <c r="L271" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.2">
@@ -8158,7 +8161,7 @@
         <v>units</v>
       </c>
       <c r="L272" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.2">
@@ -8184,7 +8187,7 @@
       </c>
       <c r="K273" s="2"/>
       <c r="L273" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.2">
@@ -8210,7 +8213,7 @@
       </c>
       <c r="K274" s="2"/>
       <c r="L274" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.2">
@@ -8236,7 +8239,7 @@
       </c>
       <c r="K275" s="2"/>
       <c r="L275" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.2">
@@ -8262,7 +8265,7 @@
       </c>
       <c r="K276" s="2"/>
       <c r="L276" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.2">
@@ -8288,7 +8291,7 @@
       </c>
       <c r="K277" s="2"/>
       <c r="L277" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.2">
@@ -8314,7 +8317,7 @@
       </c>
       <c r="K278" s="2"/>
       <c r="L278" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.2">
@@ -8340,7 +8343,7 @@
       </c>
       <c r="K279" s="2"/>
       <c r="L279" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.2">
@@ -8366,7 +8369,7 @@
       </c>
       <c r="K280" s="2"/>
       <c r="L280" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.2">
@@ -8392,7 +8395,7 @@
       </c>
       <c r="K281" s="2"/>
       <c r="L281" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.2">
@@ -8418,7 +8421,7 @@
       </c>
       <c r="K282" s="2"/>
       <c r="L282" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.2">
@@ -8444,7 +8447,7 @@
       </c>
       <c r="K283" s="2"/>
       <c r="L283" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.2">
@@ -8470,7 +8473,7 @@
       </c>
       <c r="K284" s="2"/>
       <c r="L284" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.2">
@@ -8496,7 +8499,7 @@
       </c>
       <c r="K285" s="2"/>
       <c r="L285" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.2">
@@ -8521,7 +8524,7 @@
         <v>1</v>
       </c>
       <c r="L286" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.2">
@@ -8546,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="L287" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.2">
@@ -8571,7 +8574,7 @@
         <v>1</v>
       </c>
       <c r="L288" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.2">
@@ -8596,7 +8599,7 @@
         <v>1</v>
       </c>
       <c r="L289" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.2">
@@ -8621,7 +8624,7 @@
         <v>1</v>
       </c>
       <c r="L290" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.2">
@@ -8646,7 +8649,7 @@
         <v>1</v>
       </c>
       <c r="L291" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.2">
@@ -8671,7 +8674,7 @@
         <v>1</v>
       </c>
       <c r="L292" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
@@ -8696,7 +8699,7 @@
         <v>1</v>
       </c>
       <c r="L293" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.2">
@@ -8721,7 +8724,7 @@
         <v>1</v>
       </c>
       <c r="L294" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.2">
@@ -8746,7 +8749,7 @@
         <v>1</v>
       </c>
       <c r="L295" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.2">
@@ -8771,7 +8774,7 @@
         <v>1</v>
       </c>
       <c r="L296" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.2">
@@ -8796,7 +8799,7 @@
         <v>1</v>
       </c>
       <c r="L297" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.2">
@@ -8821,7 +8824,7 @@
         <v>1</v>
       </c>
       <c r="L298" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.2">
@@ -8846,7 +8849,7 @@
         <v>1</v>
       </c>
       <c r="L299" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.2">
@@ -8871,7 +8874,7 @@
         <v>1</v>
       </c>
       <c r="L300" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.2">
@@ -8896,7 +8899,7 @@
         <v>1</v>
       </c>
       <c r="L301" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.2">
@@ -8921,7 +8924,7 @@
         <v>1</v>
       </c>
       <c r="L302" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.2">
@@ -8946,7 +8949,7 @@
         <v>1</v>
       </c>
       <c r="L303" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.2">
@@ -8971,7 +8974,7 @@
         <v>1</v>
       </c>
       <c r="L304" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.2">
@@ -8996,7 +8999,7 @@
         <v>0</v>
       </c>
       <c r="L305" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.2">
@@ -9021,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="L306" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.2">
@@ -9046,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="L307" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.2">
@@ -9071,7 +9074,7 @@
         <v>0</v>
       </c>
       <c r="L308" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.2">
@@ -9096,7 +9099,7 @@
         <v>0</v>
       </c>
       <c r="L309" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.2">
@@ -9121,7 +9124,7 @@
         <v>0</v>
       </c>
       <c r="L310" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.2">
@@ -9146,7 +9149,7 @@
         <v>0</v>
       </c>
       <c r="L311" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.2">
@@ -9171,7 +9174,7 @@
         <v>0</v>
       </c>
       <c r="L312" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.2">
@@ -9196,7 +9199,7 @@
         <v>0</v>
       </c>
       <c r="L313" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.2">
@@ -9221,7 +9224,7 @@
         <v>0</v>
       </c>
       <c r="L314" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.2">
@@ -9246,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="L315" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.2">
@@ -9271,7 +9274,7 @@
         <v>0</v>
       </c>
       <c r="L316" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
@@ -9296,7 +9299,7 @@
         <v>0</v>
       </c>
       <c r="L317" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
@@ -9321,7 +9324,7 @@
         <v>0</v>
       </c>
       <c r="L318" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.2">
@@ -9346,7 +9349,7 @@
         <v>0</v>
       </c>
       <c r="L319" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.2">
@@ -9371,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="L320" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.2">
@@ -9396,7 +9399,7 @@
         <v>0</v>
       </c>
       <c r="L321" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.2">
@@ -9421,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="L322" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.2">
@@ -9446,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="L323" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.2">
@@ -9471,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="L324" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.2">
@@ -9496,7 +9499,7 @@
         <v>0</v>
       </c>
       <c r="L325" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.2">
@@ -9521,7 +9524,7 @@
         <v>0</v>
       </c>
       <c r="L326" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
@@ -9546,7 +9549,7 @@
         <v>0</v>
       </c>
       <c r="L327" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
@@ -9571,7 +9574,7 @@
         <v>0</v>
       </c>
       <c r="L328" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.2">
@@ -9596,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="L329" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.2">
@@ -9621,7 +9624,7 @@
         <v>0</v>
       </c>
       <c r="L330" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.2">
@@ -9646,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="L331" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.2">
@@ -9671,7 +9674,7 @@
         <v>0</v>
       </c>
       <c r="L332" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.2">
@@ -9696,7 +9699,7 @@
         <v>0</v>
       </c>
       <c r="L333" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.2">
@@ -9721,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="L334" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.2">
@@ -9746,7 +9749,7 @@
         <v>0</v>
       </c>
       <c r="L335" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.2">
@@ -9771,7 +9774,7 @@
         <v>0</v>
       </c>
       <c r="L336" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
@@ -10168,16 +10171,16 @@
         <v>1.6862040205094498E-5</v>
       </c>
       <c r="H353" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J353" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K353" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L353" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.2">
@@ -10206,16 +10209,16 @@
         <v>1.742919809038875E-5</v>
       </c>
       <c r="H354" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J354" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K354" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L354" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.2">
@@ -10244,16 +10247,16 @@
         <v>1.8255786075705291E-5</v>
       </c>
       <c r="H355" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J355" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K355" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L355" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.2">
@@ -10282,16 +10285,16 @@
         <v>1.9191980233433766E-5</v>
       </c>
       <c r="H356" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J356" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K356" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L356" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.2">
@@ -10320,16 +10323,16 @@
         <v>1.9812897240986033E-5</v>
       </c>
       <c r="H357" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J357" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K357" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L357" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.2">
@@ -10358,16 +10361,16 @@
         <v>2.0475334534757602E-5</v>
       </c>
       <c r="H358" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J358" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K358" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L358" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.2">
@@ -10396,16 +10399,16 @@
         <v>2.095298619575506E-5</v>
       </c>
       <c r="H359" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J359" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K359" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L359" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.2">
@@ -10434,16 +10437,16 @@
         <v>2.1660402128409167E-5</v>
       </c>
       <c r="H360" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J360" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K360" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L360" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.2">
@@ -10472,16 +10475,16 @@
         <v>2.2014330267762262E-5</v>
       </c>
       <c r="H361" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J361" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K361" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L361" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.2">
@@ -10510,16 +10513,16 @@
         <v>2.2912874360323985E-5</v>
       </c>
       <c r="H362" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J362" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K362" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L362" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.2">
@@ -10548,16 +10551,16 @@
         <v>2.2912874360323985E-5</v>
       </c>
       <c r="H363" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J363" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K363" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L363" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.2">
@@ -10586,16 +10589,16 @@
         <v>2.2605318999782726E-5</v>
       </c>
       <c r="H364" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J364" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K364" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L364" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.2">
@@ -10624,16 +10627,16 @@
         <v>2.1730274393339522E-5</v>
       </c>
       <c r="H365" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J365" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K365" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L365" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.2">
@@ -10747,7 +10750,7 @@
         <v>1991</v>
       </c>
       <c r="F370" t="str">
-        <f t="shared" ref="F338:F400" si="14">F$8</f>
+        <f t="shared" ref="F370:F400" si="14">F$8</f>
         <v>elecsupply</v>
       </c>
     </row>
@@ -11261,16 +11264,16 @@
         <v>6.4910630297733835E-6</v>
       </c>
       <c r="H392" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J392" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K392" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L392" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.2">
@@ -11299,16 +11302,16 @@
         <v>6.3042485314316079E-6</v>
       </c>
       <c r="H393" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J393" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K393" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L393" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.2">
@@ -11337,16 +11340,16 @@
         <v>5.5421686626796339E-6</v>
       </c>
       <c r="H394" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J394" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K394" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L394" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.2">
@@ -11375,16 +11378,16 @@
         <v>5.7190219795282809E-6</v>
       </c>
       <c r="H395" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J395" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K395" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L395" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.2">
@@ -11413,16 +11416,16 @@
         <v>6.1088977488540743E-6</v>
       </c>
       <c r="H396" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J396" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K396" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L396" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.2">
@@ -11451,16 +11454,16 @@
         <v>6.1088977488540743E-6</v>
       </c>
       <c r="H397" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J397" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K397" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L397" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.2">
@@ -11489,16 +11492,16 @@
         <v>5.8203289819894234E-6</v>
       </c>
       <c r="H398" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J398" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K398" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L398" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.2">
@@ -11527,16 +11530,16 @@
         <v>5.5735056497790744E-6</v>
       </c>
       <c r="H399" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J399" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K399" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L399" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.2">
@@ -11565,16 +11568,16 @@
         <v>5.2752293686874E-6</v>
       </c>
       <c r="H400" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J400" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K400" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L400" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.2">
@@ -11596,22 +11599,22 @@
         <v>1990</v>
       </c>
       <c r="F401" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G401">
         <v>1.6619623743333447</v>
       </c>
       <c r="H401" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J401" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K401" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L401" t="s">
         <v>59</v>
-      </c>
-      <c r="L401" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.2">
@@ -11633,22 +11636,22 @@
         <v>1991</v>
       </c>
       <c r="F402" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G402">
         <v>1.6529349561812849</v>
       </c>
       <c r="H402" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J402" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K402" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L402" t="s">
         <v>59</v>
-      </c>
-      <c r="L402" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.2">
@@ -11670,22 +11673,22 @@
         <v>1992</v>
       </c>
       <c r="F403" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G403">
         <v>1.6439015880381007</v>
       </c>
       <c r="H403" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J403" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K403" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L403" t="s">
         <v>59</v>
-      </c>
-      <c r="L403" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.2">
@@ -11707,22 +11710,22 @@
         <v>1993</v>
       </c>
       <c r="F404" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G404">
         <v>1.6348977095326076</v>
       </c>
       <c r="H404" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J404" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K404" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L404" t="s">
         <v>59</v>
-      </c>
-      <c r="L404" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.2">
@@ -11744,22 +11747,22 @@
         <v>1994</v>
       </c>
       <c r="F405" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G405">
         <v>1.6359409990814882</v>
       </c>
       <c r="H405" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J405" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K405" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L405" t="s">
         <v>59</v>
-      </c>
-      <c r="L405" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.2">
@@ -11781,22 +11784,22 @@
         <v>1995</v>
       </c>
       <c r="F406" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G406">
         <v>1.627796211649325</v>
       </c>
       <c r="H406" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J406" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K406" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L406" t="s">
         <v>59</v>
-      </c>
-      <c r="L406" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.2">
@@ -11818,22 +11821,22 @@
         <v>1996</v>
       </c>
       <c r="F407" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G407">
         <v>1.6201500029414151</v>
       </c>
       <c r="H407" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J407" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K407" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L407" t="s">
         <v>59</v>
-      </c>
-      <c r="L407" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.2">
@@ -11855,22 +11858,22 @@
         <v>1997</v>
       </c>
       <c r="F408" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G408">
         <v>1.6129948320503564</v>
       </c>
       <c r="H408" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J408" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K408" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L408" t="s">
         <v>59</v>
-      </c>
-      <c r="L408" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.2">
@@ -11892,22 +11895,22 @@
         <v>1998</v>
       </c>
       <c r="F409" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G409">
         <v>1.6062654456809142</v>
       </c>
       <c r="H409" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J409" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K409" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L409" t="s">
         <v>59</v>
-      </c>
-      <c r="L409" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.2">
@@ -11929,22 +11932,22 @@
         <v>1999</v>
       </c>
       <c r="F410" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G410">
         <v>1.5998922064513665</v>
       </c>
       <c r="H410" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J410" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K410" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L410" t="s">
         <v>59</v>
-      </c>
-      <c r="L410" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.2">
@@ -11966,22 +11969,22 @@
         <v>2000</v>
       </c>
       <c r="F411" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G411">
         <v>1.5938163690116243</v>
       </c>
       <c r="H411" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J411" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K411" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L411" t="s">
         <v>59</v>
-      </c>
-      <c r="L411" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.2">
@@ -12003,22 +12006,22 @@
         <v>2001</v>
       </c>
       <c r="F412" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G412">
         <v>1.5906754879369145</v>
       </c>
       <c r="H412" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J412" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K412" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L412" t="s">
         <v>59</v>
-      </c>
-      <c r="L412" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.2">
@@ -12040,22 +12043,22 @@
         <v>2002</v>
       </c>
       <c r="F413" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G413">
         <v>1.587189549799211</v>
       </c>
       <c r="H413" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J413" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K413" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L413" t="s">
         <v>59</v>
-      </c>
-      <c r="L413" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.2">
@@ -12077,22 +12080,22 @@
         <v>2003</v>
       </c>
       <c r="F414" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G414">
         <v>1.5834524958984122</v>
       </c>
       <c r="H414" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J414" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K414" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L414" t="s">
         <v>59</v>
-      </c>
-      <c r="L414" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.2">
@@ -12114,22 +12117,22 @@
         <v>2004</v>
       </c>
       <c r="F415" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G415">
         <v>1.5795519905141138</v>
       </c>
       <c r="H415" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J415" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K415" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L415" t="s">
         <v>59</v>
-      </c>
-      <c r="L415" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.2">
@@ -12151,22 +12154,22 @@
         <v>2005</v>
       </c>
       <c r="F416" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G416">
         <v>1.5742273401858171</v>
       </c>
       <c r="H416" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J416" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K416" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L416" t="s">
         <v>59</v>
-      </c>
-      <c r="L416" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.2">
@@ -12188,22 +12191,22 @@
         <v>2006</v>
       </c>
       <c r="F417" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G417">
         <v>1.5770757432902991</v>
       </c>
       <c r="H417" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J417" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K417" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L417" t="s">
         <v>59</v>
-      </c>
-      <c r="L417" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.2">
@@ -12225,22 +12228,22 @@
         <v>2007</v>
       </c>
       <c r="F418" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G418">
         <v>1.5810502599514888</v>
       </c>
       <c r="H418" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J418" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K418" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L418" t="s">
         <v>59</v>
-      </c>
-      <c r="L418" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.2">
@@ -12262,22 +12265,22 @@
         <v>2008</v>
       </c>
       <c r="F419" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G419">
         <v>1.5868573677903355</v>
       </c>
       <c r="H419" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J419" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K419" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L419" t="s">
         <v>59</v>
-      </c>
-      <c r="L419" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.2">
@@ -12299,22 +12302,22 @@
         <v>2009</v>
       </c>
       <c r="F420" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G420">
         <v>1.5941421065031705</v>
       </c>
       <c r="H420" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J420" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K420" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L420" t="s">
         <v>59</v>
-      </c>
-      <c r="L420" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.2">
@@ -12336,22 +12339,22 @@
         <v>2010</v>
       </c>
       <c r="F421" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G421">
         <v>1.6027499464678339</v>
       </c>
       <c r="H421" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J421" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K421" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L421" t="s">
         <v>59</v>
-      </c>
-      <c r="L421" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.2">
@@ -12373,22 +12376,22 @@
         <v>2011</v>
       </c>
       <c r="F422" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G422">
         <v>1.5952803755147054</v>
       </c>
       <c r="H422" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J422" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K422" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L422" t="s">
         <v>59</v>
-      </c>
-      <c r="L422" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.2">
@@ -12410,22 +12413,22 @@
         <v>2012</v>
       </c>
       <c r="F423" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G423">
         <v>1.5881061022973417</v>
       </c>
       <c r="H423" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J423" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K423" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L423" t="s">
         <v>59</v>
-      </c>
-      <c r="L423" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.2">
@@ -12447,22 +12450,22 @@
         <v>2013</v>
       </c>
       <c r="F424" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G424">
         <v>1.580437033556165</v>
       </c>
       <c r="H424" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J424" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K424" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L424" t="s">
         <v>59</v>
-      </c>
-      <c r="L424" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.2">
@@ -12484,22 +12487,22 @@
         <v>2014</v>
       </c>
       <c r="F425" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G425">
         <v>1.5720933219641362</v>
       </c>
       <c r="H425" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J425" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K425" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L425" t="s">
         <v>59</v>
-      </c>
-      <c r="L425" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.2">
@@ -12521,22 +12524,22 @@
         <v>2015</v>
       </c>
       <c r="F426" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G426">
         <v>1.5638595650126308</v>
       </c>
       <c r="H426" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J426" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K426" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L426" t="s">
         <v>59</v>
-      </c>
-      <c r="L426" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.2">
@@ -12558,22 +12561,22 @@
         <v>2016</v>
       </c>
       <c r="F427" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G427">
         <v>1.5655707775003618</v>
       </c>
       <c r="H427" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J427" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K427" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L427" t="s">
         <v>59</v>
-      </c>
-      <c r="L427" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.2">
@@ -12595,22 +12598,22 @@
         <v>2017</v>
       </c>
       <c r="F428" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G428">
         <v>1.5669067656006332</v>
       </c>
       <c r="H428" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J428" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K428" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L428" t="s">
         <v>59</v>
-      </c>
-      <c r="L428" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.2">
@@ -12632,22 +12635,22 @@
         <v>2018</v>
       </c>
       <c r="F429" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G429">
         <v>1.5680560012794198</v>
       </c>
       <c r="H429" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J429" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K429" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L429" t="s">
         <v>59</v>
-      </c>
-      <c r="L429" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.2">
@@ -12669,22 +12672,22 @@
         <v>2019</v>
       </c>
       <c r="F430" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G430">
         <v>1.56899278989477</v>
       </c>
       <c r="H430" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J430" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K430" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L430" t="s">
         <v>59</v>
-      </c>
-      <c r="L430" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.2">
@@ -12706,22 +12709,22 @@
         <v>2020</v>
       </c>
       <c r="F431" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G431">
         <v>1.5830542936008962</v>
       </c>
       <c r="H431" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J431" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K431" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L431" t="s">
         <v>59</v>
-      </c>
-      <c r="L431" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.2">
@@ -12743,22 +12746,22 @@
         <v>2021</v>
       </c>
       <c r="F432" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G432">
         <v>1.5781479220274037</v>
       </c>
       <c r="H432" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J432" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K432" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L432" t="s">
         <v>59</v>
-      </c>
-      <c r="L432" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.2">
@@ -12780,23 +12783,23 @@
         <v>1990</v>
       </c>
       <c r="F433" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G433">
         <f>G401</f>
         <v>1.6619623743333447</v>
       </c>
       <c r="H433" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J433" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K433" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L433" t="s">
         <v>59</v>
-      </c>
-      <c r="L433" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.2">
@@ -12818,23 +12821,23 @@
         <v>1991</v>
       </c>
       <c r="F434" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G434">
         <f t="shared" ref="G434:G464" si="17">G402</f>
         <v>1.6529349561812849</v>
       </c>
       <c r="H434" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J434" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K434" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L434" t="s">
         <v>59</v>
-      </c>
-      <c r="L434" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.2">
@@ -12856,23 +12859,23 @@
         <v>1992</v>
       </c>
       <c r="F435" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G435">
         <f t="shared" si="17"/>
         <v>1.6439015880381007</v>
       </c>
       <c r="H435" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J435" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K435" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L435" t="s">
         <v>59</v>
-      </c>
-      <c r="L435" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.2">
@@ -12894,23 +12897,23 @@
         <v>1993</v>
       </c>
       <c r="F436" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G436">
         <f t="shared" si="17"/>
         <v>1.6348977095326076</v>
       </c>
       <c r="H436" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J436" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K436" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L436" t="s">
         <v>59</v>
-      </c>
-      <c r="L436" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.2">
@@ -12932,23 +12935,23 @@
         <v>1994</v>
       </c>
       <c r="F437" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G437">
         <f t="shared" si="17"/>
         <v>1.6359409990814882</v>
       </c>
       <c r="H437" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J437" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K437" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L437" t="s">
         <v>59</v>
-      </c>
-      <c r="L437" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.2">
@@ -12970,23 +12973,23 @@
         <v>1995</v>
       </c>
       <c r="F438" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G438">
         <f t="shared" si="17"/>
         <v>1.627796211649325</v>
       </c>
       <c r="H438" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J438" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K438" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L438" t="s">
         <v>59</v>
-      </c>
-      <c r="L438" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.2">
@@ -13008,23 +13011,23 @@
         <v>1996</v>
       </c>
       <c r="F439" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G439">
         <f t="shared" si="17"/>
         <v>1.6201500029414151</v>
       </c>
       <c r="H439" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J439" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K439" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L439" t="s">
         <v>59</v>
-      </c>
-      <c r="L439" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.2">
@@ -13046,23 +13049,23 @@
         <v>1997</v>
       </c>
       <c r="F440" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G440">
         <f t="shared" si="17"/>
         <v>1.6129948320503564</v>
       </c>
       <c r="H440" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J440" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K440" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L440" t="s">
         <v>59</v>
-      </c>
-      <c r="L440" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.2">
@@ -13084,23 +13087,23 @@
         <v>1998</v>
       </c>
       <c r="F441" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G441">
         <f t="shared" si="17"/>
         <v>1.6062654456809142</v>
       </c>
       <c r="H441" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J441" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K441" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L441" t="s">
         <v>59</v>
-      </c>
-      <c r="L441" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.2">
@@ -13122,23 +13125,23 @@
         <v>1999</v>
       </c>
       <c r="F442" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G442">
         <f t="shared" si="17"/>
         <v>1.5998922064513665</v>
       </c>
       <c r="H442" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J442" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K442" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L442" t="s">
         <v>59</v>
-      </c>
-      <c r="L442" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.2">
@@ -13160,23 +13163,23 @@
         <v>2000</v>
       </c>
       <c r="F443" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G443">
         <f t="shared" si="17"/>
         <v>1.5938163690116243</v>
       </c>
       <c r="H443" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J443" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K443" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L443" t="s">
         <v>59</v>
-      </c>
-      <c r="L443" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.2">
@@ -13198,23 +13201,23 @@
         <v>2001</v>
       </c>
       <c r="F444" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G444">
         <f t="shared" si="17"/>
         <v>1.5906754879369145</v>
       </c>
       <c r="H444" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J444" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K444" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L444" t="s">
         <v>59</v>
-      </c>
-      <c r="L444" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.2">
@@ -13236,23 +13239,23 @@
         <v>2002</v>
       </c>
       <c r="F445" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G445">
         <f t="shared" si="17"/>
         <v>1.587189549799211</v>
       </c>
       <c r="H445" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J445" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K445" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L445" t="s">
         <v>59</v>
-      </c>
-      <c r="L445" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.2">
@@ -13274,23 +13277,23 @@
         <v>2003</v>
       </c>
       <c r="F446" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G446">
         <f t="shared" si="17"/>
         <v>1.5834524958984122</v>
       </c>
       <c r="H446" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J446" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K446" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L446" t="s">
         <v>59</v>
-      </c>
-      <c r="L446" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.2">
@@ -13312,23 +13315,23 @@
         <v>2004</v>
       </c>
       <c r="F447" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G447">
         <f t="shared" si="17"/>
         <v>1.5795519905141138</v>
       </c>
       <c r="H447" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J447" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K447" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L447" t="s">
         <v>59</v>
-      </c>
-      <c r="L447" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.2">
@@ -13350,23 +13353,23 @@
         <v>2005</v>
       </c>
       <c r="F448" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G448">
         <f t="shared" si="17"/>
         <v>1.5742273401858171</v>
       </c>
       <c r="H448" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J448" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K448" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L448" t="s">
         <v>59</v>
-      </c>
-      <c r="L448" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.2">
@@ -13388,23 +13391,23 @@
         <v>2006</v>
       </c>
       <c r="F449" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G449">
         <f t="shared" si="17"/>
         <v>1.5770757432902991</v>
       </c>
       <c r="H449" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J449" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K449" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L449" t="s">
         <v>59</v>
-      </c>
-      <c r="L449" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.2">
@@ -13426,23 +13429,23 @@
         <v>2007</v>
       </c>
       <c r="F450" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G450">
         <f t="shared" si="17"/>
         <v>1.5810502599514888</v>
       </c>
       <c r="H450" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J450" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K450" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L450" t="s">
         <v>59</v>
-      </c>
-      <c r="L450" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.2">
@@ -13464,23 +13467,23 @@
         <v>2008</v>
       </c>
       <c r="F451" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G451">
         <f t="shared" si="17"/>
         <v>1.5868573677903355</v>
       </c>
       <c r="H451" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J451" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K451" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L451" t="s">
         <v>59</v>
-      </c>
-      <c r="L451" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="452" spans="1:12" x14ac:dyDescent="0.2">
@@ -13502,23 +13505,23 @@
         <v>2009</v>
       </c>
       <c r="F452" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G452">
         <f t="shared" si="17"/>
         <v>1.5941421065031705</v>
       </c>
       <c r="H452" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J452" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K452" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L452" t="s">
         <v>59</v>
-      </c>
-      <c r="L452" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.2">
@@ -13540,23 +13543,23 @@
         <v>2010</v>
       </c>
       <c r="F453" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G453">
         <f t="shared" si="17"/>
         <v>1.6027499464678339</v>
       </c>
       <c r="H453" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J453" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K453" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L453" t="s">
         <v>59</v>
-      </c>
-      <c r="L453" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.2">
@@ -13578,23 +13581,23 @@
         <v>2011</v>
       </c>
       <c r="F454" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G454">
         <f t="shared" si="17"/>
         <v>1.5952803755147054</v>
       </c>
       <c r="H454" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J454" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K454" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L454" t="s">
         <v>59</v>
-      </c>
-      <c r="L454" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="455" spans="1:12" x14ac:dyDescent="0.2">
@@ -13616,23 +13619,23 @@
         <v>2012</v>
       </c>
       <c r="F455" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G455">
         <f t="shared" si="17"/>
         <v>1.5881061022973417</v>
       </c>
       <c r="H455" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J455" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K455" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L455" t="s">
         <v>59</v>
-      </c>
-      <c r="L455" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.2">
@@ -13654,23 +13657,23 @@
         <v>2013</v>
       </c>
       <c r="F456" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G456">
         <f t="shared" si="17"/>
         <v>1.580437033556165</v>
       </c>
       <c r="H456" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J456" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K456" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L456" t="s">
         <v>59</v>
-      </c>
-      <c r="L456" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.2">
@@ -13692,23 +13695,23 @@
         <v>2014</v>
       </c>
       <c r="F457" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G457">
         <f t="shared" si="17"/>
         <v>1.5720933219641362</v>
       </c>
       <c r="H457" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J457" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K457" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L457" t="s">
         <v>59</v>
-      </c>
-      <c r="L457" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="458" spans="1:12" x14ac:dyDescent="0.2">
@@ -13730,23 +13733,23 @@
         <v>2015</v>
       </c>
       <c r="F458" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G458">
         <f t="shared" si="17"/>
         <v>1.5638595650126308</v>
       </c>
       <c r="H458" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J458" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K458" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L458" t="s">
         <v>59</v>
-      </c>
-      <c r="L458" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="459" spans="1:12" x14ac:dyDescent="0.2">
@@ -13768,23 +13771,23 @@
         <v>2016</v>
       </c>
       <c r="F459" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G459">
         <f t="shared" si="17"/>
         <v>1.5655707775003618</v>
       </c>
       <c r="H459" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J459" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K459" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L459" t="s">
         <v>59</v>
-      </c>
-      <c r="L459" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="460" spans="1:12" x14ac:dyDescent="0.2">
@@ -13806,23 +13809,23 @@
         <v>2017</v>
       </c>
       <c r="F460" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G460">
         <f t="shared" si="17"/>
         <v>1.5669067656006332</v>
       </c>
       <c r="H460" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J460" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K460" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L460" t="s">
         <v>59</v>
-      </c>
-      <c r="L460" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="461" spans="1:12" x14ac:dyDescent="0.2">
@@ -13844,23 +13847,23 @@
         <v>2018</v>
       </c>
       <c r="F461" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G461">
         <f t="shared" si="17"/>
         <v>1.5680560012794198</v>
       </c>
       <c r="H461" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J461" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K461" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L461" t="s">
         <v>59</v>
-      </c>
-      <c r="L461" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="462" spans="1:12" x14ac:dyDescent="0.2">
@@ -13882,23 +13885,23 @@
         <v>2019</v>
       </c>
       <c r="F462" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G462">
         <f t="shared" si="17"/>
         <v>1.56899278989477</v>
       </c>
       <c r="H462" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J462" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K462" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L462" t="s">
         <v>59</v>
-      </c>
-      <c r="L462" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="463" spans="1:12" x14ac:dyDescent="0.2">
@@ -13920,23 +13923,23 @@
         <v>2020</v>
       </c>
       <c r="F463" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G463">
         <f t="shared" si="17"/>
         <v>1.5830542936008962</v>
       </c>
       <c r="H463" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J463" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K463" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L463" t="s">
         <v>59</v>
-      </c>
-      <c r="L463" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="464" spans="1:12" x14ac:dyDescent="0.2">
@@ -13958,50 +13961,53 @@
         <v>2021</v>
       </c>
       <c r="F464" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G464">
         <f t="shared" si="17"/>
         <v>1.5781479220274037</v>
       </c>
       <c r="H464" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J464" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K464" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L464" t="s">
         <v>59</v>
-      </c>
-      <c r="L464" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A5:L880" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="J15:L15">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"TODO"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="K15" r:id="rId1" xr:uid="{D11E7F0F-E127-5643-8C05-AF28547E6E27}"/>
-    <hyperlink ref="K16" r:id="rId2" xr:uid="{AB382EBD-FD85-A94C-A2D5-AE3D74C6342F}"/>
-    <hyperlink ref="K401" r:id="rId3" xr:uid="{E0535359-E762-5E4F-9EF4-8DAD7165E39B}"/>
-    <hyperlink ref="K402:K464" r:id="rId4" display="https://www.bfs.admin.ch/bfs/fr/home/statistiques/mobilite-transports/transport-personnes/prestations.assetdetail.23725823.html" xr:uid="{68BAF866-93A1-6F40-AA85-EFFA516FB53B}"/>
-    <hyperlink ref="K64" r:id="rId5" xr:uid="{57AB3A29-B7EE-E947-B9C6-AC202A168188}"/>
-    <hyperlink ref="K49:K63" r:id="rId6" display="https://opendata.swiss/en/dataset/bestand-der-personenwagen-nach-technischen-merkmalen-ab-20052" xr:uid="{2359E783-4D2C-8F4A-A467-29657ABB57EB}"/>
-    <hyperlink ref="K65:K80" r:id="rId7" display="https://opendata.swiss/en/dataset/bestand-der-personenwagen-nach-technischen-merkmalen-ab-20052" xr:uid="{0289099E-436D-CD44-8E73-16472E7870FA}"/>
-    <hyperlink ref="K83:K112" r:id="rId8" display="https://opendata.swiss/en/dataset/neue-inverkehrsetzungen-von-strassenfahrzeugen-nach-fahrzeuggruppe-und-fahrzeugart2/resource/48e8a4f2-19ee-498d-ad6f-316180b0940b" xr:uid="{85D40114-E1AF-3E41-AE4C-31D352EA8EA0}"/>
-    <hyperlink ref="K353" r:id="rId9" xr:uid="{0C0E526D-6A8C-134F-BE35-06B4ADC7AC73}"/>
-    <hyperlink ref="K354" r:id="rId10" xr:uid="{16AA0025-3BD7-DE4D-8E6B-FD3E18746E5D}"/>
-    <hyperlink ref="K355" r:id="rId11" xr:uid="{BBFC5090-41FD-8046-9803-E98FDB7E40D8}"/>
-    <hyperlink ref="K356" r:id="rId12" xr:uid="{30B27A8D-794B-314E-86F0-66744B224471}"/>
-    <hyperlink ref="K357" r:id="rId13" xr:uid="{D20C7DFE-67F3-9E41-9ACF-D3BC37F4565E}"/>
-    <hyperlink ref="K358" r:id="rId14" xr:uid="{98427525-458A-8045-8CF6-B698A0D2726C}"/>
-    <hyperlink ref="K359" r:id="rId15" xr:uid="{DD108A33-D081-F24C-A088-5234F8D003E7}"/>
-    <hyperlink ref="K360" r:id="rId16" xr:uid="{4F8C4733-0CF1-1C48-83AC-F7C7236241E8}"/>
-    <hyperlink ref="K361" r:id="rId17" xr:uid="{3F41DD1B-5DD8-5842-993C-F89466B6488B}"/>
-    <hyperlink ref="K362" r:id="rId18" xr:uid="{F05113B1-8B78-F041-B1B6-8F19B7B89295}"/>
-    <hyperlink ref="K363" r:id="rId19" xr:uid="{7660EC4E-4292-0B47-B819-CDC341B0F0A1}"/>
-    <hyperlink ref="K364" r:id="rId20" xr:uid="{B540A238-FE89-5440-BFD0-91B753B511D5}"/>
-    <hyperlink ref="K365" r:id="rId21" xr:uid="{3100728D-DAAC-9944-B51F-5902116B3337}"/>
+    <hyperlink ref="K401" r:id="rId1" xr:uid="{E0535359-E762-5E4F-9EF4-8DAD7165E39B}"/>
+    <hyperlink ref="K402:K464" r:id="rId2" display="https://www.bfs.admin.ch/bfs/fr/home/statistiques/mobilite-transports/transport-personnes/prestations.assetdetail.23725823.html" xr:uid="{68BAF866-93A1-6F40-AA85-EFFA516FB53B}"/>
+    <hyperlink ref="K64" r:id="rId3" xr:uid="{57AB3A29-B7EE-E947-B9C6-AC202A168188}"/>
+    <hyperlink ref="K49:K63" r:id="rId4" display="https://opendata.swiss/en/dataset/bestand-der-personenwagen-nach-technischen-merkmalen-ab-20052" xr:uid="{2359E783-4D2C-8F4A-A467-29657ABB57EB}"/>
+    <hyperlink ref="K65:K80" r:id="rId5" display="https://opendata.swiss/en/dataset/bestand-der-personenwagen-nach-technischen-merkmalen-ab-20052" xr:uid="{0289099E-436D-CD44-8E73-16472E7870FA}"/>
+    <hyperlink ref="K83:K112" r:id="rId6" display="https://opendata.swiss/en/dataset/neue-inverkehrsetzungen-von-strassenfahrzeugen-nach-fahrzeuggruppe-und-fahrzeugart2/resource/48e8a4f2-19ee-498d-ad6f-316180b0940b" xr:uid="{85D40114-E1AF-3E41-AE4C-31D352EA8EA0}"/>
+    <hyperlink ref="K353" r:id="rId7" xr:uid="{0C0E526D-6A8C-134F-BE35-06B4ADC7AC73}"/>
+    <hyperlink ref="K354" r:id="rId8" xr:uid="{16AA0025-3BD7-DE4D-8E6B-FD3E18746E5D}"/>
+    <hyperlink ref="K355" r:id="rId9" xr:uid="{BBFC5090-41FD-8046-9803-E98FDB7E40D8}"/>
+    <hyperlink ref="K356" r:id="rId10" xr:uid="{30B27A8D-794B-314E-86F0-66744B224471}"/>
+    <hyperlink ref="K357" r:id="rId11" xr:uid="{D20C7DFE-67F3-9E41-9ACF-D3BC37F4565E}"/>
+    <hyperlink ref="K358" r:id="rId12" xr:uid="{98427525-458A-8045-8CF6-B698A0D2726C}"/>
+    <hyperlink ref="K359" r:id="rId13" xr:uid="{DD108A33-D081-F24C-A088-5234F8D003E7}"/>
+    <hyperlink ref="K360" r:id="rId14" xr:uid="{4F8C4733-0CF1-1C48-83AC-F7C7236241E8}"/>
+    <hyperlink ref="K361" r:id="rId15" xr:uid="{3F41DD1B-5DD8-5842-993C-F89466B6488B}"/>
+    <hyperlink ref="K362" r:id="rId16" xr:uid="{F05113B1-8B78-F041-B1B6-8F19B7B89295}"/>
+    <hyperlink ref="K363" r:id="rId17" xr:uid="{7660EC4E-4292-0B47-B819-CDC341B0F0A1}"/>
+    <hyperlink ref="K364" r:id="rId18" xr:uid="{B540A238-FE89-5440-BFD0-91B753B511D5}"/>
+    <hyperlink ref="K365" r:id="rId19" xr:uid="{3100728D-DAAC-9944-B51F-5902116B3337}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
